--- a/data/D_ÓRGANOS ADMINISTRATIVOS - APOYO.xlsx
+++ b/data/D_ÓRGANOS ADMINISTRATIVOS - APOYO.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\directorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35EAE231-976E-4FA5-9367-12479EF21BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E1BC36-714C-4EFD-A15C-338BDEC6B5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{59F0D748-1722-45C4-9DB8-5356C02CDA9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00F106F5-2773-43BA-8C23-B9C833798A42}"/>
   </bookViews>
   <sheets>
-    <sheet name="ÓRGANOS ADMINISTRATIVOS - APOYO" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>APELLIDOS Y NOMBRES</t>
   </si>
@@ -93,34 +93,28 @@
     <t>mesadepartesvirtualdelaunac@unac.edu.pe</t>
   </si>
   <si>
+    <t xml:space="preserve">  Jefe de la Unidad Funcional de Elaboración y Administración  Documentaria de la Unidad de Archivo Central y Trámite Documentario de Secretaría General</t>
+  </si>
+  <si>
+    <t>482-2023-R.</t>
+  </si>
+  <si>
     <t>CONCEPCIÓN NEYRA ROBERTO DAVID</t>
   </si>
   <si>
-    <t xml:space="preserve">  Jefe de la Unidad Funcional de Elaboración y Administración  Documentaria de la Unidad de Archivo Central y Trámite Documentario de Secretaría General</t>
-  </si>
-  <si>
-    <t>482-2023-R.</t>
+    <t xml:space="preserve">  Jefatura - UNIDAD DE CERTIFICACIONES Y RESOLUCIONES</t>
+  </si>
+  <si>
+    <t>GyT.</t>
+  </si>
+  <si>
+    <t>010-2024-R.</t>
+  </si>
+  <si>
+    <t>453-1712</t>
   </si>
   <si>
     <t>rdconcepcionn@unac.edu.pe</t>
-  </si>
-  <si>
-    <t>SALAZAR SHIRAISHI SHEILA VIVEKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Jefatura - UNIDAD DE CERTIFICACIONES Y RESOLUCIONES</t>
-  </si>
-  <si>
-    <t>GyT.</t>
-  </si>
-  <si>
-    <t>010-2024-R.</t>
-  </si>
-  <si>
-    <t>453-1712</t>
-  </si>
-  <si>
-    <t>svsalazars@unac.edu.pe</t>
   </si>
   <si>
     <t>unidad.gt@unac.edu.pe</t>
@@ -154,12 +148,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -192,6 +186,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Montserrat Medium"/>
@@ -211,60 +212,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -301,19 +254,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color rgb="FF001F5F"/>
       </right>
@@ -356,7 +296,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -369,73 +346,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -454,17 +428,45 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Montserrat SemiBold"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEBDE14"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="8"/>
         <color auto="1"/>
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -497,12 +499,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -537,12 +533,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -577,12 +567,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -617,12 +601,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -657,15 +635,11 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -688,49 +662,12 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Montserrat SemiBold"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEBDE14"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -747,19 +684,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0062C5D6-C40A-43A6-9F85-2D077365413C}" name="Tabla3" displayName="Tabla3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="A1:H6" xr:uid="{0B4D83D5-0F23-41BC-8FCB-094D9E3B4631}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B40DDBC-4E3A-4349-A474-0F46AB15B4F6}" name="Tabla1" displayName="Tabla1" ref="A1:H6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A1:H6" xr:uid="{1B40DDBC-4E3A-4349-A474-0F46AB15B4F6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{86E7539F-E4DC-4353-939A-ACFB4B80575B}" name="APELLIDOS Y NOMBRES" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{15C77375-3975-48C2-BE25-A1D4694FE5DC}" name="CARGO" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{62A52DD3-49D5-44B8-AE25-3DCB863ED95A}" name="SIGLA" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{F162ACF2-72AE-43C4-ACD8-DB441758061F}" name="RESOL."/>
-    <tableColumn id="5" xr3:uid="{FB513EBC-4E96-4367-AC29-FB60C5C1BDAD}" name="TELF. FIJO"/>
-    <tableColumn id="6" xr3:uid="{5895FBE9-FC0C-425A-B743-7DD17626D228}" name="CORREO INSTITUCIONAL" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{3356298C-6676-43FB-BB28-958CA837590B}" name="CORREOS GENERAL" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{EAE2B2F9-DF44-415E-B4BB-87C2D44D169D}" name="ANEXO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F034506F-B952-4EC4-81AD-C1063D539A18}" name="APELLIDOS Y NOMBRES" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{989B2075-4EFF-4617-BEDB-A83250DBE64E}" name="CARGO" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{88639DF7-3AB3-462E-B416-1C1DC9F8A3C0}" name="SIGLA" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{899FC0FE-072B-4DA0-9E4C-7CB5F1758DD5}" name="RESOL."/>
+    <tableColumn id="5" xr3:uid="{422AA838-6932-4D89-94A2-7EEB186B90C4}" name="TELF. FIJO"/>
+    <tableColumn id="6" xr3:uid="{D828CD9A-52A6-4561-B335-9D6CA271804B}" name="CORREO INSTITUCIONAL" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{141F89BB-3510-4E06-BCF7-B7A44693E271}" name="CORREOS GENERAL" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{E608F3EE-5995-4152-8D53-156A8D5DD060}" name="ANEXO" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1059,194 +996,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A60FCF-83FF-4E8F-9700-8174BD317494}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9B780D-8792-41AE-8181-A96A3E892B6F}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12" style="4"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="12" style="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="38.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="78.75">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="18">
         <v>1073</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="157.5">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="202.5">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="18"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" ht="67.5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="E5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="F5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="G5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="H5" s="18">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="78.75">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="11">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="67.5">
-      <c r="A6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="H6" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="mailto:secgral@unac.edu.pe" xr:uid="{5ED8676F-3C80-4510-BB18-76E01E7F905D}"/>
-    <hyperlink ref="G6" r:id="rId2" xr:uid="{6923C235-F50B-46A9-A872-B1EA92599F37}"/>
-    <hyperlink ref="G3" r:id="rId3" display="mailto:mesadepartesvirtualdelaunac@unac.edu.pe" xr:uid="{C6066F6B-732B-4BDA-9177-B4A5D7333971}"/>
-    <hyperlink ref="F2" r:id="rId4" xr:uid="{1E204DAD-1B57-4699-83FD-7F4B4B27B923}"/>
-    <hyperlink ref="F3" r:id="rId5" xr:uid="{EA3ABADB-72E9-461A-8C38-31570E17E130}"/>
-    <hyperlink ref="F4" r:id="rId6" xr:uid="{DEEB8526-D864-46E2-8E4A-8DE2A5F7CB71}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{1641451F-5859-4EBC-B3D2-042F3806553E}"/>
-    <hyperlink ref="F6" r:id="rId8" xr:uid="{05626DB7-90E1-40F3-8FF7-1A815BEA5FFA}"/>
-    <hyperlink ref="D3" r:id="rId9" xr:uid="{DD5C8E66-6EB2-4D4A-B49C-3160E8AB40A6}"/>
-    <hyperlink ref="D4" r:id="rId10" xr:uid="{E46A2EC3-DFB4-4A15-BB7E-9AAADAAAB110}"/>
-    <hyperlink ref="D6" r:id="rId11" xr:uid="{EFF67567-3F2C-4FEB-8DF4-4F7621EF7AAD}"/>
-    <hyperlink ref="G5" r:id="rId12" xr:uid="{8CBDB9D4-69CB-4B80-8648-66CED6236298}"/>
-    <hyperlink ref="D5" r:id="rId13" xr:uid="{A49EB0A4-A374-43D7-84BE-53D6D0FA547E}"/>
-    <hyperlink ref="D2" r:id="rId14" xr:uid="{A0F89509-2D3A-4936-92F3-B4D7DD501064}"/>
+    <hyperlink ref="G2" r:id="rId1" display="mailto:secgral@unac.edu.pe" xr:uid="{CEA9CE1B-AC9E-4083-919F-4BBAC462E891}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{215E905B-50D1-4480-8C73-78E5F2BE190D}"/>
+    <hyperlink ref="G3" r:id="rId3" display="mailto:mesadepartesvirtualdelaunac@unac.edu.pe" xr:uid="{0EC6F37A-BD05-4F14-82C1-DC45875113E9}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{634C831C-F1DE-4E15-85B4-EF6B46E39C75}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{180CA29F-75A9-4B46-93FA-14C0ADF4139C}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{A3AEFBB6-898A-4805-8CE5-F0C79E6E5515}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{8833FAF0-DD2B-4F82-B4B1-AEE961FB8615}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{943055B6-8D0F-409C-AE43-677CAA00F489}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{6564C947-7C82-4D06-9E15-796726630A6B}"/>
+    <hyperlink ref="G5" r:id="rId10" xr:uid="{17DF450B-D95B-4178-B92F-B37C4A4FEA42}"/>
+    <hyperlink ref="D5" r:id="rId11" xr:uid="{E24D2C1C-67B4-4623-844D-C371A80C901D}"/>
+    <hyperlink ref="D2" r:id="rId12" xr:uid="{FE4101DD-1D40-460F-AD4D-C72D39946662}"/>
+    <hyperlink ref="F5" r:id="rId13" xr:uid="{DFC909DE-3D3E-4C33-B481-6192141F8D06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>